--- a/data/特质物品和指令.xlsx
+++ b/data/特质物品和指令.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39dced17c821e64c/ERA/DEVELOP/MYGAME/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MYGAME\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="459" documentId="11_F25DC773A252ABDACC1048CE395F77B65BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA58F858-513C-47F1-91DE-4429A484731B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285DB017-C00F-4AA2-A334-2B93D13022EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="686">
   <si>
     <t>调教指令</t>
   </si>
@@ -1992,9 +1992,6 @@
     <t xml:space="preserve">商城 </t>
   </si>
   <si>
-    <t>兴奋剂</t>
-  </si>
-  <si>
     <t>跳蛋</t>
   </si>
   <si>
@@ -2034,9 +2031,6 @@
     <t xml:space="preserve">食物 </t>
   </si>
   <si>
-    <t xml:space="preserve">麻药 </t>
-  </si>
-  <si>
     <t xml:space="preserve">口枷 </t>
   </si>
   <si>
@@ -2067,9 +2061,6 @@
     <t xml:space="preserve">鞭子 </t>
   </si>
   <si>
-    <t xml:space="preserve">迷药 </t>
-  </si>
-  <si>
     <t xml:space="preserve">穿孔工具 </t>
   </si>
   <si>
@@ -2116,32 +2107,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">减少扩张难度 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低肌肉强度的药</t>
+  </si>
+  <si>
+    <t>小巧的性玩具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">可以放在各个部位 </t>
+  </si>
+  <si>
+    <t>按摩阴蒂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小穴用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">肛用 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媚药（服用型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媚药（注射型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媚药（粉末型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强性欲和感度的药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">使对方发情 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">减少扩张难度 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低肌肉强度的药</t>
-  </si>
-  <si>
-    <t>小巧的性玩具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">可以放在各个部位 </t>
-  </si>
-  <si>
-    <t>按摩阴蒂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小穴用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">肛用 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使对方发情并临时增加感度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在对方不知情的状态下使对方发情 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调教中使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致幻剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使大脑麻痹，产生幻觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎加行动成功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻醉藥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷药</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2149,7 +2193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2221,27 +2265,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2525,1246 +2569,1246 @@
       <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="4" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="4" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="4" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="4" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="4" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="4" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="4" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="4" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="4" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="4" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="4" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="4" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="4" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="4" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="4" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="4" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="4" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="4" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="4" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="4" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="4" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="5"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="4" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="5"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="4" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="5"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="4" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="5"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="4" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="5"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="4" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="5"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="4" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="5"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="4" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="5"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="4" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="5"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="4" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="5"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="4" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="5"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="4" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="5"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="4" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="5"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="4" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="5"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="4" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="5"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="4" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="5"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="4" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="5"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="4" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="4" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="4" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="4" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="4" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="7"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="4" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="7"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="4" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="7"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="4" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="7"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="4" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="7"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="4" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="7"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="4" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="7"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="4" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="7"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="4" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="7"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="4" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="7"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="4" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="7"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="4" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="7"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="4" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="7"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="4" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="7"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="5"/>
-      <c r="B65" s="7" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="7"/>
+      <c r="B65" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="5"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="4" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="7"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="5"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="4" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="7"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="5"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="4" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="7"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="5"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="4" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="7"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="5"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="4" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="7"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="5"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="4" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="7"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="5"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="4" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="7"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="5"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="4" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="7"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="5"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="4" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="7"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="5"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="4" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="7"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="5"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="4" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="7"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="5"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="4" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="7"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="5"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="4" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="7"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="5"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="4" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="7"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="5"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="4" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="7"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="5"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="4" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="7"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="5"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="4" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="7"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="5"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="4" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="7"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="5"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="4" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="7"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="5"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="4" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="7"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="5"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="4" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="7"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="5"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="4" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="7"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="5"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="4" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="7"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="5"/>
-      <c r="B89" s="7" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="7"/>
+      <c r="B89" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="5"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="4" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="7"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="5"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="4" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="7"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="5"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="4" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="7"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="5"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="4" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="7"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="5"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="4" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="7"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="5"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="4" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="7"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="5"/>
-      <c r="B96" s="7" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="7"/>
+      <c r="B96" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="5"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="4" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="7"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="5"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="4" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="7"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="5"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="4" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="7"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="5"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="4" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="7"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="5"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="4" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="7"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="5"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="4" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="7"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="5"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="4" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="7"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="5"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="4" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="7"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="5"/>
-      <c r="B105" s="7" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="7"/>
+      <c r="B105" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="5"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="4" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="7"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="5"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="4" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="7"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="5"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="4" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="7"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="5"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="4" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="7"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="5"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="4" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="7"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="5"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="4" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="7"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="5"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="4" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="7"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="5"/>
-      <c r="B113" s="7" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="7"/>
+      <c r="B113" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="5"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="4" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="7"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="5"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="4" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="7"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="5"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="4" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="7"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="5"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="4" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="7"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="5"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="4" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="7"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="5"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="4" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="7"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="5"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="4" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="7"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="5"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="4" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="7"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="5"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="4" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="7"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="5"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="4" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="7"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="5"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="4" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="7"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="5"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="4" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="7"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="5"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="4" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="7"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="5"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="4" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="7"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="5"/>
-      <c r="B128" s="7" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="7"/>
+      <c r="B128" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="5"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="4" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="7"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="5"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="4" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="7"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="5"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="4" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="7"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="5"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="4" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="7"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="5"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="4" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="7"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="5"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="4" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="7"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="5"/>
-      <c r="B135" s="7" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="7"/>
+      <c r="B135" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="5"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="4" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="7"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="5"/>
-      <c r="B137" s="7" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="7"/>
+      <c r="B137" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="5"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="4" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="7"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="5"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="4" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="7"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="5"/>
-      <c r="B140" s="7"/>
-      <c r="C140" s="4" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="7"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="5" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C141" s="5"/>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5" t="s">
+      <c r="C141" s="7"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="7"/>
+      <c r="B142" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C142" s="5"/>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5" t="s">
+      <c r="C142" s="7"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="7"/>
+      <c r="B143" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C143" s="5"/>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5" t="s">
+      <c r="C143" s="7"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="7"/>
+      <c r="B144" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C144" s="5"/>
-      <c r="D144" s="4" t="s">
+      <c r="C144" s="7"/>
+      <c r="D144" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="7"/>
+      <c r="B145" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="4" t="s">
+      <c r="C145" s="7"/>
+      <c r="D145" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="7"/>
+      <c r="B146" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C146" s="5"/>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5" t="s">
+      <c r="C146" s="7"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="7"/>
+      <c r="B147" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C147" s="5"/>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5" t="s">
+      <c r="C147" s="7"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="7"/>
+      <c r="B148" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C148" s="5"/>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="5" t="s">
+      <c r="C148" s="7"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="5"/>
-      <c r="B150" s="7"/>
-      <c r="C150" s="4" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="7"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="5"/>
-      <c r="B151" s="7"/>
-      <c r="C151" s="4" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="7"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="7"/>
+      <c r="B152" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C152" s="5"/>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5" t="s">
+      <c r="C152" s="7"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="7"/>
+      <c r="B153" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C153" s="5"/>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5" t="s">
+      <c r="C153" s="7"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="7"/>
+      <c r="B154" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C154" s="5"/>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="5"/>
-      <c r="B155" s="7" t="s">
+      <c r="C154" s="7"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="7"/>
+      <c r="B155" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="5"/>
-      <c r="B156" s="7"/>
-      <c r="C156" s="4" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="7"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="5"/>
-      <c r="B157" s="7"/>
-      <c r="C157" s="4" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="7"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="5"/>
-      <c r="B158" s="7"/>
-      <c r="C158" s="4" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="7"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="5"/>
-      <c r="B159" s="7"/>
-      <c r="C159" s="4" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="7"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="5"/>
-      <c r="B160" s="7"/>
-      <c r="C160" s="4" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="7"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="4" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
-      <c r="C162" s="4" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C162" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
-      <c r="C163" s="4" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C163" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="C164" s="4" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C164" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
-      <c r="C165" s="4" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C165" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="C166" s="4" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C166" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="180" spans="4:5">
-      <c r="D180" s="4" t="s">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D180" s="3" t="s">
         <v>159</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="198" spans="4:8">
-      <c r="D198" s="4" t="s">
+    <row r="198" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D198" s="3" t="s">
         <v>161</v>
       </c>
       <c r="E198" s="1" t="s">
@@ -3782,11 +3826,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="A2:A140"/>
+    <mergeCell ref="B2:B64"/>
+    <mergeCell ref="B65:B88"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="B96:B104"/>
+    <mergeCell ref="B105:B112"/>
+    <mergeCell ref="B113:B127"/>
+    <mergeCell ref="B128:B134"/>
+    <mergeCell ref="B135:B136"/>
     <mergeCell ref="B145:C145"/>
     <mergeCell ref="A141:A148"/>
     <mergeCell ref="A149:A160"/>
@@ -3798,15 +3846,11 @@
     <mergeCell ref="B146:C146"/>
     <mergeCell ref="B147:C147"/>
     <mergeCell ref="B148:C148"/>
-    <mergeCell ref="A2:A140"/>
-    <mergeCell ref="B2:B64"/>
-    <mergeCell ref="B65:B88"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="B96:B104"/>
-    <mergeCell ref="B105:B112"/>
-    <mergeCell ref="B113:B127"/>
-    <mergeCell ref="B128:B134"/>
-    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3817,21 +3861,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5237CB10-5FCE-4489-8881-F60B0577BB09}">
   <dimension ref="A1:E216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C206" sqref="C206"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="76.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>199</v>
       </c>
@@ -3848,8 +3892,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>203</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3859,8 +3903,8 @@
         <v>430</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>205</v>
       </c>
@@ -3868,8 +3912,8 @@
         <v>431</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>206</v>
       </c>
@@ -3877,8 +3921,8 @@
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>207</v>
       </c>
@@ -3886,8 +3930,8 @@
         <v>433</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>208</v>
       </c>
@@ -3895,8 +3939,8 @@
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>209</v>
       </c>
@@ -3904,8 +3948,8 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>210</v>
       </c>
@@ -3913,8 +3957,8 @@
         <v>434</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>211</v>
       </c>
@@ -3922,32 +3966,32 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3957,8 +4001,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>218</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3968,8 +4012,8 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>205</v>
       </c>
@@ -3977,8 +4021,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>220</v>
       </c>
@@ -3986,8 +4030,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>221</v>
       </c>
@@ -3995,8 +4039,8 @@
         <v>439</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>222</v>
       </c>
@@ -4004,8 +4048,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>223</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4018,8 +4062,8 @@
         <v>521</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>225</v>
       </c>
@@ -4030,8 +4074,8 @@
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
         <v>226</v>
       </c>
@@ -4042,8 +4086,8 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
         <v>227</v>
       </c>
@@ -4054,8 +4098,8 @@
         <v>527</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
         <v>228</v>
       </c>
@@ -4066,8 +4110,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
         <v>229</v>
       </c>
@@ -4078,8 +4122,8 @@
         <v>531</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
         <v>230</v>
       </c>
@@ -4087,8 +4131,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
         <v>231</v>
       </c>
@@ -4096,8 +4140,8 @@
         <v>443</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
         <v>232</v>
       </c>
@@ -4105,8 +4149,8 @@
         <v>444</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
       <c r="B29" s="1" t="s">
         <v>233</v>
       </c>
@@ -4117,8 +4161,8 @@
         <v>558</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
         <v>234</v>
       </c>
@@ -4126,8 +4170,8 @@
         <v>446</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
       <c r="B31" s="1" t="s">
         <v>235</v>
       </c>
@@ -4135,8 +4179,8 @@
         <v>559</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
       <c r="B32" s="1" t="s">
         <v>236</v>
       </c>
@@ -4147,8 +4191,8 @@
         <v>533</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
       <c r="B33" s="1" t="s">
         <v>237</v>
       </c>
@@ -4156,8 +4200,8 @@
         <v>560</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
         <v>238</v>
       </c>
@@ -4165,8 +4209,8 @@
         <v>447</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
       <c r="B35" s="1" t="s">
         <v>239</v>
       </c>
@@ -4174,8 +4218,8 @@
         <v>448</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
         <v>240</v>
       </c>
@@ -4183,8 +4227,8 @@
         <v>449</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
       <c r="B37" s="1" t="s">
         <v>241</v>
       </c>
@@ -4195,8 +4239,8 @@
         <v>561</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
       <c r="B38" s="1" t="s">
         <v>242</v>
       </c>
@@ -4204,8 +4248,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
       <c r="B39" s="1" t="s">
         <v>243</v>
       </c>
@@ -4213,8 +4257,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
         <v>244</v>
       </c>
@@ -4225,8 +4269,8 @@
         <v>535</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
       <c r="B41" s="1" t="s">
         <v>245</v>
       </c>
@@ -4237,8 +4281,8 @@
         <v>537</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
         <v>246</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -4254,8 +4298,8 @@
         <v>562</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="8"/>
       <c r="B43" s="1" t="s">
         <v>248</v>
       </c>
@@ -4266,8 +4310,8 @@
         <v>607</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
         <v>249</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -4277,8 +4321,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
       <c r="B45" s="1" t="s">
         <v>251</v>
       </c>
@@ -4286,8 +4330,8 @@
         <v>454</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
       <c r="B46" s="1" t="s">
         <v>252</v>
       </c>
@@ -4295,8 +4339,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
       <c r="B47" s="1" t="s">
         <v>253</v>
       </c>
@@ -4304,8 +4348,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="8"/>
       <c r="B48" s="1" t="s">
         <v>254</v>
       </c>
@@ -4313,8 +4357,8 @@
         <v>457</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="8"/>
       <c r="B49" s="1" t="s">
         <v>255</v>
       </c>
@@ -4322,8 +4366,8 @@
         <v>458</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="8"/>
       <c r="B50" s="1" t="s">
         <v>256</v>
       </c>
@@ -4331,8 +4375,8 @@
         <v>459</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
         <v>257</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -4342,8 +4386,8 @@
         <v>460</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="8"/>
       <c r="B52" s="1" t="s">
         <v>258</v>
       </c>
@@ -4354,8 +4398,8 @@
         <v>563</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="8"/>
       <c r="B53" s="1" t="s">
         <v>259</v>
       </c>
@@ -4366,8 +4410,8 @@
         <v>564</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="2"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="8"/>
       <c r="B54" s="1" t="s">
         <v>260</v>
       </c>
@@ -4378,8 +4422,8 @@
         <v>565</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="8"/>
       <c r="B55" s="1" t="s">
         <v>261</v>
       </c>
@@ -4390,8 +4434,8 @@
         <v>610</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="2"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="8"/>
       <c r="B56" s="1" t="s">
         <v>262</v>
       </c>
@@ -4402,8 +4446,8 @@
         <v>609</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="2"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="8"/>
       <c r="B57" s="1" t="s">
         <v>263</v>
       </c>
@@ -4417,8 +4461,8 @@
         <v>608</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="2"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="8"/>
       <c r="B58" s="1" t="s">
         <v>265</v>
       </c>
@@ -4429,8 +4473,8 @@
         <v>566</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="2"/>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="8"/>
       <c r="B59" s="1" t="s">
         <v>266</v>
       </c>
@@ -4438,8 +4482,8 @@
         <v>468</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="2"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="8"/>
       <c r="B60" s="1" t="s">
         <v>267</v>
       </c>
@@ -4447,8 +4491,8 @@
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="2"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
       <c r="B61" s="1" t="s">
         <v>268</v>
       </c>
@@ -4456,20 +4500,20 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="28.5">
-      <c r="A62" s="2"/>
+    <row r="62" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
       <c r="B62" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="5" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="2"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="8"/>
       <c r="B63" s="1" t="s">
         <v>133</v>
       </c>
@@ -4480,8 +4524,8 @@
         <v>541</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="2"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="8"/>
       <c r="B64" s="1" t="s">
         <v>132</v>
       </c>
@@ -4492,8 +4536,8 @@
         <v>541</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="2"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="8"/>
       <c r="B65" s="1" t="s">
         <v>270</v>
       </c>
@@ -4504,8 +4548,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="2"/>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="8"/>
       <c r="B66" s="1" t="s">
         <v>271</v>
       </c>
@@ -4516,8 +4560,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="2"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="8"/>
       <c r="B67" s="1" t="s">
         <v>272</v>
       </c>
@@ -4528,8 +4572,8 @@
         <v>547</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="2"/>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="8"/>
       <c r="B68" s="1" t="s">
         <v>273</v>
       </c>
@@ -4540,8 +4584,8 @@
         <v>547</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="2"/>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="8"/>
       <c r="B69" s="1" t="s">
         <v>274</v>
       </c>
@@ -4549,8 +4593,8 @@
         <v>471</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="2"/>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="8"/>
       <c r="B70" s="1" t="s">
         <v>275</v>
       </c>
@@ -4558,8 +4602,8 @@
         <v>472</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
         <v>276</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -4572,8 +4616,8 @@
         <v>550</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="2"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="8"/>
       <c r="B72" s="1" t="s">
         <v>278</v>
       </c>
@@ -4584,8 +4628,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="2"/>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="8"/>
       <c r="B73" s="1" t="s">
         <v>279</v>
       </c>
@@ -4596,8 +4640,8 @@
         <v>568</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="2"/>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="8"/>
       <c r="B74" s="1" t="s">
         <v>280</v>
       </c>
@@ -4608,8 +4652,8 @@
         <v>569</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="2"/>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="8"/>
       <c r="B75" s="1" t="s">
         <v>281</v>
       </c>
@@ -4620,8 +4664,8 @@
         <v>570</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="2"/>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="8"/>
       <c r="B76" s="1" t="s">
         <v>282</v>
       </c>
@@ -4632,8 +4676,8 @@
         <v>571</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="2"/>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="8"/>
       <c r="B77" s="1" t="s">
         <v>283</v>
       </c>
@@ -4644,8 +4688,8 @@
         <v>572</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="2"/>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="8"/>
       <c r="B78" s="1" t="s">
         <v>284</v>
       </c>
@@ -4656,8 +4700,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="2"/>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="8"/>
       <c r="B79" s="1" t="s">
         <v>285</v>
       </c>
@@ -4671,8 +4715,8 @@
         <v>574</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="2"/>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="8"/>
       <c r="B80" s="1" t="s">
         <v>286</v>
       </c>
@@ -4686,8 +4730,8 @@
         <v>574</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="2"/>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="8"/>
       <c r="B81" s="1" t="s">
         <v>287</v>
       </c>
@@ -4698,8 +4742,8 @@
         <v>575</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="2"/>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="8"/>
       <c r="B82" s="1" t="s">
         <v>288</v>
       </c>
@@ -4710,8 +4754,8 @@
         <v>576</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="2"/>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="8"/>
       <c r="B83" s="1" t="s">
         <v>289</v>
       </c>
@@ -4722,8 +4766,8 @@
         <v>557</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="2"/>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="8"/>
       <c r="B84" s="1" t="s">
         <v>290</v>
       </c>
@@ -4737,26 +4781,26 @@
         <v>577</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="2"/>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="8"/>
       <c r="B85" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="2"/>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="8"/>
       <c r="B86" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="2"/>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="8"/>
       <c r="B87" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="8" t="s">
         <v>294</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -4769,8 +4813,8 @@
         <v>578</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="2"/>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="8"/>
       <c r="B89" s="1" t="s">
         <v>296</v>
       </c>
@@ -4781,23 +4825,23 @@
         <v>579</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="28.5">
-      <c r="A90" s="2"/>
+    <row r="90" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="8"/>
       <c r="B90" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="5" t="s">
         <v>612</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="2"/>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="8"/>
       <c r="B91" s="1" t="s">
         <v>298</v>
       </c>
@@ -4808,8 +4852,8 @@
         <v>581</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="2"/>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="8"/>
       <c r="B92" s="1" t="s">
         <v>299</v>
       </c>
@@ -4820,8 +4864,8 @@
         <v>582</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="2"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="8"/>
       <c r="B93" s="1" t="s">
         <v>300</v>
       </c>
@@ -4832,8 +4876,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="2"/>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="8"/>
       <c r="B94" s="1" t="s">
         <v>301</v>
       </c>
@@ -4844,20 +4888,20 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="28.5">
-      <c r="A95" s="2"/>
+    <row r="95" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="8"/>
       <c r="B95" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="2"/>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="8"/>
       <c r="B96" s="1" t="s">
         <v>303</v>
       </c>
@@ -4868,8 +4912,8 @@
         <v>583</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="2"/>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="8"/>
       <c r="B97" s="1" t="s">
         <v>304</v>
       </c>
@@ -4880,8 +4924,8 @@
         <v>583</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="2"/>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="8"/>
       <c r="B98" s="1" t="s">
         <v>305</v>
       </c>
@@ -4892,8 +4936,8 @@
         <v>584</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="2"/>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="8"/>
       <c r="B99" s="1" t="s">
         <v>306</v>
       </c>
@@ -4904,8 +4948,8 @@
         <v>585</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="2"/>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="8"/>
       <c r="B100" s="1" t="s">
         <v>307</v>
       </c>
@@ -4919,8 +4963,8 @@
         <v>586</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="2"/>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="8"/>
       <c r="B101" s="1" t="s">
         <v>308</v>
       </c>
@@ -4934,8 +4978,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="2"/>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="8"/>
       <c r="B102" s="1" t="s">
         <v>309</v>
       </c>
@@ -4946,8 +4990,8 @@
         <v>588</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="2"/>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="8"/>
       <c r="B103" s="1" t="s">
         <v>310</v>
       </c>
@@ -4958,8 +5002,8 @@
         <v>581</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="2"/>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="8"/>
       <c r="B104" s="1" t="s">
         <v>311</v>
       </c>
@@ -4970,8 +5014,8 @@
         <v>581</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="2"/>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="8"/>
       <c r="B105" s="1" t="s">
         <v>312</v>
       </c>
@@ -4982,8 +5026,8 @@
         <v>581</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="2"/>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="8"/>
       <c r="B106" s="1" t="s">
         <v>313</v>
       </c>
@@ -4994,8 +5038,8 @@
         <v>581</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="2"/>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="8"/>
       <c r="B107" s="1" t="s">
         <v>314</v>
       </c>
@@ -5006,8 +5050,8 @@
         <v>589</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="2"/>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="8"/>
       <c r="B108" s="1" t="s">
         <v>315</v>
       </c>
@@ -5015,16 +5059,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="2" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="8" t="s">
         <v>316</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="2"/>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="8"/>
       <c r="B110" s="1" t="s">
         <v>318</v>
       </c>
@@ -5035,8 +5079,8 @@
         <v>590</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="2"/>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="8"/>
       <c r="B111" s="1" t="s">
         <v>319</v>
       </c>
@@ -5047,8 +5091,8 @@
         <v>591</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="2"/>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="8"/>
       <c r="B112" s="1" t="s">
         <v>320</v>
       </c>
@@ -5059,8 +5103,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="2"/>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="8"/>
       <c r="B113" s="1" t="s">
         <v>321</v>
       </c>
@@ -5071,26 +5115,26 @@
         <v>592</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="2"/>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="8"/>
       <c r="B114" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="2"/>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="8"/>
       <c r="B115" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="2"/>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="8"/>
       <c r="B116" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="2"/>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="8"/>
       <c r="B117" s="1" t="s">
         <v>325</v>
       </c>
@@ -5098,14 +5142,14 @@
         <v>504</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="2"/>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="8"/>
       <c r="B118" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="2"/>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="8"/>
       <c r="B119" s="1" t="s">
         <v>327</v>
       </c>
@@ -5116,20 +5160,20 @@
         <v>592</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="2"/>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="8"/>
       <c r="B120" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="2"/>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="8"/>
       <c r="B121" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="2"/>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="8"/>
       <c r="B122" s="1" t="s">
         <v>330</v>
       </c>
@@ -5140,8 +5184,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="2"/>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="8"/>
       <c r="B123" s="1" t="s">
         <v>331</v>
       </c>
@@ -5152,8 +5196,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="2"/>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="8"/>
       <c r="B124" s="1" t="s">
         <v>332</v>
       </c>
@@ -5164,8 +5208,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="2"/>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="8"/>
       <c r="B125" s="1" t="s">
         <v>333</v>
       </c>
@@ -5176,8 +5220,8 @@
         <v>593</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="2"/>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="8"/>
       <c r="B126" s="1" t="s">
         <v>334</v>
       </c>
@@ -5188,62 +5232,62 @@
         <v>592</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="2"/>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="8"/>
       <c r="B127" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="2"/>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="8"/>
       <c r="B128" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="2"/>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="8"/>
       <c r="B129" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="2"/>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="8"/>
       <c r="B130" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="2"/>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="8"/>
       <c r="B131" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="2"/>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="8"/>
       <c r="B132" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="2"/>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="8"/>
       <c r="B133" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="2"/>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="8"/>
       <c r="B134" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="2"/>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="8"/>
       <c r="B135" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="2" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -5256,8 +5300,8 @@
         <v>594</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="2"/>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="8"/>
       <c r="B137" s="1" t="s">
         <v>345</v>
       </c>
@@ -5271,8 +5315,8 @@
         <v>595</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="2"/>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="8"/>
       <c r="B138" s="1" t="s">
         <v>346</v>
       </c>
@@ -5280,26 +5324,26 @@
         <v>512</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="2"/>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="8"/>
       <c r="B139" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="2"/>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="8"/>
       <c r="B140" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="2"/>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="8"/>
       <c r="B141" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="2"/>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="8"/>
       <c r="B142" s="1" t="s">
         <v>350</v>
       </c>
@@ -5307,8 +5351,8 @@
         <v>619</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="2" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="8" t="s">
         <v>351</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -5324,8 +5368,8 @@
         <v>596</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="2"/>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="8"/>
       <c r="B144" s="1" t="s">
         <v>353</v>
       </c>
@@ -5336,8 +5380,8 @@
         <v>622</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="2"/>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="8"/>
       <c r="B145" s="1" t="s">
         <v>354</v>
       </c>
@@ -5348,8 +5392,8 @@
         <v>597</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="2"/>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="8"/>
       <c r="B146" s="1" t="s">
         <v>355</v>
       </c>
@@ -5357,8 +5401,8 @@
         <v>515</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="2"/>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="8"/>
       <c r="B147" s="1" t="s">
         <v>356</v>
       </c>
@@ -5366,106 +5410,106 @@
         <v>516</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="2"/>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="8"/>
       <c r="B148" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="2"/>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="8"/>
       <c r="B149" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="2" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="8" t="s">
         <v>359</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="2"/>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="8"/>
       <c r="B151" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="2"/>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="8"/>
       <c r="B152" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="2"/>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="8"/>
       <c r="B153" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="2"/>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="8"/>
       <c r="B154" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="2"/>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="8"/>
       <c r="B155" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="2"/>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="8"/>
       <c r="B156" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="2"/>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="8"/>
       <c r="B157" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="2"/>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="8"/>
       <c r="B158" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="2"/>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="8"/>
       <c r="B159" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="2"/>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="8"/>
       <c r="B160" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="2"/>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="8"/>
       <c r="B161" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="2"/>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="8"/>
       <c r="B162" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="2"/>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="8"/>
       <c r="B163" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="2"/>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="8"/>
       <c r="B164" s="1" t="s">
         <v>374</v>
       </c>
@@ -5479,8 +5523,8 @@
         <v>598</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="2"/>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="8"/>
       <c r="B165" s="1" t="s">
         <v>375</v>
       </c>
@@ -5491,8 +5535,8 @@
         <v>599</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="2"/>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="8"/>
       <c r="B166" s="1" t="s">
         <v>376</v>
       </c>
@@ -5503,162 +5547,162 @@
         <v>600</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="2" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="8" t="s">
         <v>377</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="2"/>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="8"/>
       <c r="B168" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="2"/>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="8"/>
       <c r="B169" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="2"/>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="8"/>
       <c r="B170" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="2"/>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="8"/>
       <c r="B171" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="2"/>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="8"/>
       <c r="B172" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="2"/>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="8"/>
       <c r="B173" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="2"/>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="8"/>
       <c r="B174" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="2"/>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="8"/>
       <c r="B175" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="2"/>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="8"/>
       <c r="B176" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="2"/>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="8"/>
       <c r="B177" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="2"/>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="8"/>
       <c r="B178" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="2"/>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="8"/>
       <c r="B179" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="2"/>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="8"/>
       <c r="B180" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="2"/>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="8"/>
       <c r="B181" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="2"/>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="8"/>
       <c r="B182" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="2"/>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="8"/>
       <c r="B183" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="2"/>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="8"/>
       <c r="B184" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="2"/>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="8"/>
       <c r="B185" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="2"/>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="8"/>
       <c r="B186" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="2" t="s">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="2"/>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="8"/>
       <c r="B188" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="2"/>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="8"/>
       <c r="B189" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="2"/>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="8"/>
       <c r="B190" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="2"/>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="8"/>
       <c r="B191" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="2"/>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="8"/>
       <c r="B192" s="1" t="s">
         <v>403</v>
       </c>
@@ -5672,8 +5716,8 @@
         <v>581</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="2"/>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="8"/>
       <c r="B193" s="1" t="s">
         <v>404</v>
       </c>
@@ -5684,168 +5728,168 @@
         <v>581</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="2"/>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="8"/>
       <c r="B194" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="2"/>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="8"/>
       <c r="B195" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="2"/>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="8"/>
       <c r="B196" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="2"/>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="8"/>
       <c r="B197" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="2"/>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="8"/>
       <c r="B198" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="3" t="s">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
         <v>409</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="2" t="s">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="8" t="s">
         <v>411</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="2"/>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="8"/>
       <c r="B201" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="2"/>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="8"/>
       <c r="B202" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="2"/>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="8"/>
       <c r="B203" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="2"/>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="8"/>
       <c r="B204" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="2" t="s">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="8" t="s">
         <v>417</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="2"/>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="8"/>
       <c r="B206" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="2"/>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="8"/>
       <c r="B207" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="2"/>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="8"/>
       <c r="B208" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="2"/>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="8"/>
       <c r="B209" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="2"/>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="8"/>
       <c r="B210" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="2"/>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="8"/>
       <c r="B211" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="2"/>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="8"/>
       <c r="B212" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="2"/>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="8"/>
       <c r="B213" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="2"/>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="8"/>
       <c r="B214" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="2"/>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="8"/>
       <c r="B215" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="2"/>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="8"/>
       <c r="B216" s="1" t="s">
         <v>429</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A150:A166"/>
-    <mergeCell ref="A167:A186"/>
-    <mergeCell ref="A187:A198"/>
-    <mergeCell ref="A200:A204"/>
-    <mergeCell ref="A205:A216"/>
-    <mergeCell ref="A51:A70"/>
-    <mergeCell ref="A71:A87"/>
-    <mergeCell ref="A88:A108"/>
-    <mergeCell ref="A109:A135"/>
-    <mergeCell ref="A136:A142"/>
     <mergeCell ref="A143:A149"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A20:A41"/>
     <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A51:A70"/>
+    <mergeCell ref="A71:A87"/>
+    <mergeCell ref="A88:A108"/>
+    <mergeCell ref="A109:A135"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="A150:A166"/>
+    <mergeCell ref="A167:A186"/>
+    <mergeCell ref="A187:A198"/>
+    <mergeCell ref="A200:A204"/>
+    <mergeCell ref="A205:A216"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5854,287 +5898,329 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0822CE3-A2F8-4B6F-A974-383D7970DA2A}">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="40.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>627</v>
       </c>
       <c r="B1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C1" t="s">
         <v>602</v>
       </c>
       <c r="D1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>83</v>
+        <v>672</v>
       </c>
       <c r="C2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D2" t="s">
+        <v>676</v>
+      </c>
+      <c r="F2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D3" t="s">
+        <v>677</v>
+      </c>
+      <c r="F3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C4" t="s">
+        <v>664</v>
+      </c>
+      <c r="D4" t="s">
+        <v>678</v>
+      </c>
+      <c r="F4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C5" t="s">
+        <v>682</v>
+      </c>
+      <c r="D5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" t="s">
+        <v>666</v>
+      </c>
+      <c r="D6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" t="s">
+        <v>628</v>
+      </c>
+      <c r="C9" t="s">
+        <v>668</v>
+      </c>
+      <c r="D9" t="s">
         <v>667</v>
       </c>
-      <c r="D2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" t="s">
         <v>670</v>
       </c>
-      <c r="D4" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>656</v>
+      </c>
+      <c r="B44" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>264</v>
       </c>
-      <c r="B5" t="s">
-        <v>629</v>
-      </c>
-      <c r="C5" t="s">
-        <v>672</v>
-      </c>
-      <c r="D5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="B33" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="B34" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="B37" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="B38" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="B39" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="B46" t="s">
         <v>659</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="B41" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>264</v>
       </c>
-      <c r="B42" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>264</v>
       </c>
     </row>
